--- a/mysql-master/analysis_module/servicemanager.xlsx
+++ b/mysql-master/analysis_module/servicemanager.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,62 +368,87 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>packages</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>android_ver</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>crash</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>timepass</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>dalvik max</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>dalvik min</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>dalvik avg</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>native max</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>native min</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>native avg</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>cpu max</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>cpu min</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>cpu avg</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>totalmem max</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>totalmem min</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>totalmem avg</t>
         </is>
       </c>
     </row>
@@ -438,18 +463,22 @@
           <t>05-27</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>servicemanager</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.7.133.X101_userdebug_2000000000</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>23</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -472,6 +501,21 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,18 +530,22 @@
           <t>06-09</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>servicemanager</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.7.137.X101_userdebug_2000000000</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>201</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -514,13 +562,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +651,11 @@
           <t>CPU</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>TOTALMEM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -623,6 +691,9 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -658,6 +729,9 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -693,8 +767,21 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>android version</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.7.133.X101_userdebug_2000000000</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>native max</t>
@@ -720,6 +807,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -747,6 +837,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
@@ -774,6 +867,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -801,6 +897,9 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -828,6 +927,9 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -855,8 +957,19 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>totalmem max</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>18:18:10</t>
@@ -874,8 +987,19 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>totalmem min</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>18:21:38</t>
@@ -893,8 +1017,19 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>totalmem avg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>18:25:09</t>
@@ -912,6 +1047,9 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
@@ -931,6 +1069,9 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
@@ -950,6 +1091,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
@@ -969,6 +1113,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
@@ -988,6 +1135,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
@@ -1007,6 +1157,9 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
@@ -1026,6 +1179,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
@@ -1045,6 +1201,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
@@ -1064,6 +1223,9 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
@@ -1083,6 +1245,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
@@ -1102,6 +1267,9 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
@@ -1119,6 +1287,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,6 +1358,11 @@
           <t>CPU</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>TOTALMEM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1222,6 +1398,9 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1257,6 +1436,9 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1292,8 +1474,21 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>android version</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.7.137.X101_userdebug_2000000000</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>native max</t>
@@ -1317,6 +1512,9 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1346,6 +1544,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
@@ -1373,6 +1574,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -1400,6 +1604,9 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -1427,6 +1634,9 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -1454,8 +1664,19 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>totalmem max</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>22:44:29</t>
@@ -1473,8 +1694,19 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>totalmem min</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>22:47:54</t>
@@ -1492,8 +1724,19 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>totalmem avg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>22:51:18</t>
@@ -1509,6 +1752,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,6 +1776,9 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
@@ -1549,6 +1798,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
@@ -1568,6 +1820,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
@@ -1587,6 +1842,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
@@ -1606,6 +1864,9 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
@@ -1625,6 +1886,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
@@ -1644,6 +1908,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
@@ -1663,6 +1930,9 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
@@ -1682,6 +1952,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
@@ -1701,6 +1974,9 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
@@ -1720,6 +1996,9 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="E25" t="inlineStr">
@@ -1739,6 +2018,9 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="E26" t="inlineStr">
@@ -1758,6 +2040,9 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="E27" t="inlineStr">
@@ -1777,6 +2062,9 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="E28" t="inlineStr">
@@ -1796,6 +2084,9 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="E29" t="inlineStr">
@@ -1815,6 +2106,9 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="inlineStr">
@@ -1834,6 +2128,9 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="inlineStr">
@@ -1853,6 +2150,9 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
@@ -1872,6 +2172,9 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="E33" t="inlineStr">
@@ -1891,6 +2194,9 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
@@ -1910,6 +2216,9 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="E35" t="inlineStr">
@@ -1929,6 +2238,9 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="E36" t="inlineStr">
@@ -1948,6 +2260,9 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="E37" t="inlineStr">
@@ -1967,6 +2282,9 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="E38" t="inlineStr">
@@ -1986,6 +2304,9 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="E39" t="inlineStr">
@@ -2005,6 +2326,9 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
@@ -2024,6 +2348,9 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
@@ -2043,6 +2370,9 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
@@ -2062,6 +2392,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
@@ -2081,6 +2414,9 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="E44" t="inlineStr">
@@ -2100,6 +2436,9 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="E45" t="inlineStr">
@@ -2119,6 +2458,9 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="E46" t="inlineStr">
@@ -2138,6 +2480,9 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="E47" t="inlineStr">
@@ -2157,6 +2502,9 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="E48" t="inlineStr">
@@ -2176,6 +2524,9 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="E49" t="inlineStr">
@@ -2195,6 +2546,9 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="E50" t="inlineStr">
@@ -2214,6 +2568,9 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="E51" t="inlineStr">
@@ -2233,6 +2590,9 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="E52" t="inlineStr">
@@ -2252,6 +2612,9 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="E53" t="inlineStr">
@@ -2271,6 +2634,9 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="E54" t="inlineStr">
@@ -2290,6 +2656,9 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="E55" t="inlineStr">
@@ -2309,6 +2678,9 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="E56" t="inlineStr">
@@ -2328,6 +2700,9 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="E57" t="inlineStr">
@@ -2347,6 +2722,9 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="E58" t="inlineStr">
@@ -2366,6 +2744,9 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="E59" t="inlineStr">
@@ -2385,6 +2766,9 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="E60" t="inlineStr">
@@ -2404,6 +2788,9 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="E61" t="inlineStr">
@@ -2423,6 +2810,9 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="E62" t="inlineStr">
@@ -2442,6 +2832,9 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="E63" t="inlineStr">
@@ -2461,6 +2854,9 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="E64" t="inlineStr">
@@ -2480,6 +2876,9 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="E65" t="inlineStr">
@@ -2499,6 +2898,9 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="E66" t="inlineStr">
@@ -2518,6 +2920,9 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="E67" t="inlineStr">
@@ -2537,6 +2942,9 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="E68" t="inlineStr">
@@ -2556,6 +2964,9 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="E69" t="inlineStr">
@@ -2575,6 +2986,9 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="E70" t="inlineStr">
@@ -2594,6 +3008,9 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="E71" t="inlineStr">
@@ -2613,6 +3030,9 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="E72" t="inlineStr">
@@ -2632,6 +3052,9 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="E73" t="inlineStr">
@@ -2651,6 +3074,9 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="E74" t="inlineStr">
@@ -2670,6 +3096,9 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="E75" t="inlineStr">
@@ -2689,6 +3118,9 @@
       <c r="I75" t="n">
         <v>3.1</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="E76" t="inlineStr">
@@ -2708,6 +3140,9 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="E77" t="inlineStr">
@@ -2727,6 +3162,9 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="E78" t="inlineStr">
@@ -2746,6 +3184,9 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="E79" t="inlineStr">
@@ -2765,6 +3206,9 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="E80" t="inlineStr">
@@ -2784,6 +3228,9 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="E81" t="inlineStr">
@@ -2803,6 +3250,9 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="E82" t="inlineStr">
@@ -2822,6 +3272,9 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="E83" t="inlineStr">
@@ -2841,6 +3294,9 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="E84" t="inlineStr">
@@ -2860,6 +3316,9 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="E85" t="inlineStr">
@@ -2879,6 +3338,9 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="E86" t="inlineStr">
@@ -2898,6 +3360,9 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="E87" t="inlineStr">
@@ -2917,6 +3382,9 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="E88" t="inlineStr">
@@ -2936,6 +3404,9 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="E89" t="inlineStr">
@@ -2955,6 +3426,9 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="E90" t="inlineStr">
@@ -2974,6 +3448,9 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="E91" t="inlineStr">
@@ -2993,6 +3470,9 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="E92" t="inlineStr">
@@ -3012,6 +3492,9 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="E93" t="inlineStr">
@@ -3031,6 +3514,9 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="E94" t="inlineStr">
@@ -3050,6 +3536,9 @@
       <c r="I94" t="n">
         <v>0</v>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="E95" t="inlineStr">
@@ -3069,6 +3558,9 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="E96" t="inlineStr">
@@ -3088,6 +3580,9 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="E97" t="inlineStr">
@@ -3107,6 +3602,9 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="E98" t="inlineStr">
@@ -3126,6 +3624,9 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="E99" t="inlineStr">
@@ -3145,6 +3646,9 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="E100" t="inlineStr">
@@ -3164,6 +3668,9 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="E101" t="inlineStr">
@@ -3183,6 +3690,9 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="E102" t="inlineStr">
@@ -3202,6 +3712,9 @@
       <c r="I102" t="n">
         <v>0</v>
       </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="E103" t="inlineStr">
@@ -3221,6 +3734,9 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="E104" t="inlineStr">
@@ -3240,6 +3756,9 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="E105" t="inlineStr">
@@ -3259,6 +3778,9 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="E106" t="inlineStr">
@@ -3278,6 +3800,9 @@
       <c r="I106" t="n">
         <v>0</v>
       </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="E107" t="inlineStr">
@@ -3297,6 +3822,9 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="E108" t="inlineStr">
@@ -3316,6 +3844,9 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="E109" t="inlineStr">
@@ -3335,6 +3866,9 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="E110" t="inlineStr">
@@ -3354,6 +3888,9 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="E111" t="inlineStr">
@@ -3373,6 +3910,9 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="E112" t="inlineStr">
@@ -3392,6 +3932,9 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="E113" t="inlineStr">
@@ -3411,6 +3954,9 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="E114" t="inlineStr">
@@ -3430,6 +3976,9 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="E115" t="inlineStr">
@@ -3449,6 +3998,9 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="E116" t="inlineStr">
@@ -3468,6 +4020,9 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="E117" t="inlineStr">
@@ -3487,6 +4042,9 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="E118" t="inlineStr">
@@ -3506,6 +4064,9 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="E119" t="inlineStr">
@@ -3525,6 +4086,9 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="E120" t="inlineStr">
@@ -3544,6 +4108,9 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="E121" t="inlineStr">
@@ -3563,6 +4130,9 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="E122" t="inlineStr">
@@ -3582,6 +4152,9 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="E123" t="inlineStr">
@@ -3601,6 +4174,9 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="E124" t="inlineStr">
@@ -3620,6 +4196,9 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="E125" t="inlineStr">
@@ -3639,6 +4218,9 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="E126" t="inlineStr">
@@ -3658,6 +4240,9 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="E127" t="inlineStr">
@@ -3677,6 +4262,9 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="E128" t="inlineStr">
@@ -3696,6 +4284,9 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="E129" t="inlineStr">
@@ -3715,6 +4306,9 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="E130" t="inlineStr">
@@ -3734,6 +4328,9 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="E131" t="inlineStr">
@@ -3753,6 +4350,9 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="E132" t="inlineStr">
@@ -3772,6 +4372,9 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="E133" t="inlineStr">
@@ -3791,6 +4394,9 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="E134" t="inlineStr">
@@ -3810,6 +4416,9 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="E135" t="inlineStr">
@@ -3829,6 +4438,9 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="E136" t="inlineStr">
@@ -3848,6 +4460,9 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="E137" t="inlineStr">
@@ -3867,6 +4482,9 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="E138" t="inlineStr">
@@ -3886,6 +4504,9 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="E139" t="inlineStr">
@@ -3905,6 +4526,9 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="E140" t="inlineStr">
@@ -3924,6 +4548,9 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="E141" t="inlineStr">
@@ -3943,6 +4570,9 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="E142" t="inlineStr">
@@ -3962,6 +4592,9 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="E143" t="inlineStr">
@@ -3981,6 +4614,9 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="E144" t="inlineStr">
@@ -4000,6 +4636,9 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="E145" t="inlineStr">
@@ -4019,6 +4658,9 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="E146" t="inlineStr">
@@ -4038,6 +4680,9 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="E147" t="inlineStr">
@@ -4057,6 +4702,9 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="E148" t="inlineStr">
@@ -4076,6 +4724,9 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="E149" t="inlineStr">
@@ -4095,6 +4746,9 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="E150" t="inlineStr">
@@ -4114,6 +4768,9 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="E151" t="inlineStr">
@@ -4133,6 +4790,9 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="E152" t="inlineStr">
@@ -4152,6 +4812,9 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="E153" t="inlineStr">
@@ -4171,6 +4834,9 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="E154" t="inlineStr">
@@ -4190,6 +4856,9 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="E155" t="inlineStr">
@@ -4209,6 +4878,9 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="E156" t="inlineStr">
@@ -4228,6 +4900,9 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="E157" t="inlineStr">
@@ -4247,6 +4922,9 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="E158" t="inlineStr">
@@ -4266,6 +4944,9 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="E159" t="inlineStr">
@@ -4285,6 +4966,9 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="E160" t="inlineStr">
@@ -4304,6 +4988,9 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="E161" t="inlineStr">
@@ -4323,6 +5010,9 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="E162" t="inlineStr">
@@ -4342,6 +5032,9 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="E163" t="inlineStr">
@@ -4361,6 +5054,9 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="E164" t="inlineStr">
@@ -4380,6 +5076,9 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="E165" t="inlineStr">
@@ -4399,6 +5098,9 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="E166" t="inlineStr">
@@ -4418,6 +5120,9 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="E167" t="inlineStr">
@@ -4437,6 +5142,9 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="E168" t="inlineStr">
@@ -4456,6 +5164,9 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="E169" t="inlineStr">
@@ -4475,6 +5186,9 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="E170" t="inlineStr">
@@ -4494,6 +5208,9 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="E171" t="inlineStr">
@@ -4513,6 +5230,9 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="E172" t="inlineStr">
@@ -4532,6 +5252,9 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="E173" t="inlineStr">
@@ -4551,6 +5274,9 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="E174" t="inlineStr">
@@ -4570,6 +5296,9 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="E175" t="inlineStr">
@@ -4589,6 +5318,9 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="E176" t="inlineStr">
@@ -4608,6 +5340,9 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="E177" t="inlineStr">
@@ -4627,6 +5362,9 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="E178" t="inlineStr">
@@ -4646,6 +5384,9 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="E179" t="inlineStr">
@@ -4665,6 +5406,9 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="E180" t="inlineStr">
@@ -4684,6 +5428,9 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="E181" t="inlineStr">
@@ -4703,6 +5450,9 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="E182" t="inlineStr">
@@ -4722,6 +5472,9 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="E183" t="inlineStr">
@@ -4741,6 +5494,9 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="E184" t="inlineStr">
@@ -4760,6 +5516,9 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="E185" t="inlineStr">
@@ -4779,6 +5538,9 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="E186" t="inlineStr">
@@ -4798,6 +5560,9 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="E187" t="inlineStr">
@@ -4817,6 +5582,9 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="E188" t="inlineStr">
@@ -4836,6 +5604,9 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="E189" t="inlineStr">
@@ -4855,6 +5626,9 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="E190" t="inlineStr">
@@ -4874,6 +5648,9 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="E191" t="inlineStr">
@@ -4893,6 +5670,9 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="E192" t="inlineStr">
@@ -4912,6 +5692,9 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="E193" t="inlineStr">
@@ -4931,6 +5714,9 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="E194" t="inlineStr">
@@ -4950,6 +5736,9 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="E195" t="inlineStr">
@@ -4969,6 +5758,9 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="E196" t="inlineStr">
@@ -4988,6 +5780,9 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="E197" t="inlineStr">
@@ -5007,6 +5802,9 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="E198" t="inlineStr">
@@ -5026,6 +5824,9 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="E199" t="inlineStr">
@@ -5045,6 +5846,9 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="E200" t="inlineStr">
@@ -5064,6 +5868,9 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="E201" t="inlineStr">
@@ -5083,6 +5890,9 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="E202" t="inlineStr">
@@ -5100,6 +5910,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
         <v>0</v>
       </c>
     </row>
